--- a/task done.xlsx
+++ b/task done.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A3739-337F-4FD0-8F8A-1F6375B29E05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E052B4-46D9-443A-A7DF-DAAA8D72317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61453DFB-2971-481D-B71F-287A6EDC5B9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -57,28 +57,28 @@
     <t>update profile</t>
   </si>
   <si>
-    <t>carousell and navbar</t>
-  </si>
-  <si>
     <t>about us</t>
   </si>
   <si>
     <t>electronics landing page</t>
   </si>
   <si>
-    <t>fashion landing page</t>
-  </si>
-  <si>
     <t>grocery landing page</t>
   </si>
   <si>
     <t>contact us</t>
   </si>
   <si>
-    <t>WEEK-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         WEEK -2</t>
+    <t>admin panel sign-in and login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart </t>
+  </si>
+  <si>
+    <t>ui of the project</t>
+  </si>
+  <si>
+    <t>admin panel firebase +fuctionning</t>
   </si>
 </sst>
 </file>
@@ -442,14 +442,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -458,12 +458,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,7 +469,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,7 +483,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -496,6 +497,9 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -507,7 +511,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,10 +522,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
